--- a/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F942F21A-5E16-45A4-8942-7E25E7BDB122}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAB1D31-9F7E-40F2-8FED-ABC6673B8173}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -137,36 +140,36 @@
     <t xml:space="preserve">There are other outputs. The project invested in pre-feasibility studies of 10 solar mini grids, full feasibility of 5 solar mini-grids, development of a National Viability Gap funding for community energy projects, Coordination activties, Capacity building activities. About $900K went directly into energy infrastructure </t>
   </si>
   <si>
+    <t>Number of off grid renewable energy projects financed and implemented successfully</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate total MW for the project.</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
+  </si>
+  <si>
+    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Number of off grid renewable energy projects financed and implemented successfully</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate total MW for the project.</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
-  </si>
-  <si>
-    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
     <t>Increase (in kilowatt peak) in installed renewable energy capacity per technology (solar) in selected areas</t>
   </si>
   <si>
@@ -185,25 +188,31 @@
     <t>Joint SDG Fund</t>
   </si>
   <si>
+    <t>missing-ZWE-1</t>
+  </si>
+  <si>
+    <t>Solar for Health (S4H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
+  </si>
+  <si>
+    <t>Estimate of 1000 per health facility is used</t>
+  </si>
+  <si>
+    <t>Global Fund (Next phase will be funded by GCF)</t>
+  </si>
+  <si>
+    <t>Solar4Health</t>
+  </si>
+  <si>
+    <t>Solar = 358KWp</t>
+  </si>
+  <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>Solar for Health (S4H)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
-  </si>
-  <si>
-    <t>Global Fund (Next phase will be funded by GCF)</t>
-  </si>
-  <si>
-    <t>Solar4Health</t>
-  </si>
-  <si>
-    <t>Solar = 358KWp</t>
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
@@ -742,6 +751,117 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -765,117 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83E401-96A4-436A-9DFF-F352876B132D}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N8"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,378 +1218,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="45.75">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="61" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="111" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="62">
+      <c r="C2" s="48"/>
+      <c r="D2" s="54">
         <v>14251782</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="57">
         <v>0</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="32">
         <v>21499</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="15"/>
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:25" ht="43.5" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="62">
+      <c r="C3" s="50"/>
+      <c r="D3" s="54">
         <v>1500000</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="58">
         <v>0</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="71" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
       <c r="Y3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="61" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="G4" s="59">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <v>2</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="67">
+      <c r="N4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" ht="91.5">
+      <c r="A5" s="41"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="59">
         <v>0</v>
       </c>
-      <c r="H4" s="42">
-        <v>2</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="42" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="39" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="P5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" ht="60.75">
+      <c r="A6" s="42"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" ht="91.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="67">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="Y6" s="15"/>
+    </row>
+    <row r="7" spans="1:25" ht="33.75" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="55">
+        <v>45000000</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="58">
         <v>0</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="39" t="s">
+      <c r="H7" s="31">
+        <v>48</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="71" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" ht="60.75">
-      <c r="A6" s="50"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="67">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <v>358</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="39" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" ht="33" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="37">
+        <v>21312267.609999999</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1044</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1044000</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="39" t="s">
+      <c r="P8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="Y6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="63">
-        <v>45000000</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="66">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
-        <v>48</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" ht="33" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="45">
-        <v>21312267.609999999</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="66">
-        <v>1044</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="Q8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="W8" s="15"/>
     </row>
   </sheetData>
@@ -1740,14 +1751,14 @@
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:25" ht="43.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67">
         <v>1500000</v>
       </c>
       <c r="E3" t="s">
@@ -1780,15 +1791,15 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="45.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
@@ -1804,34 +1815,34 @@
         <v>24</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" ht="91.5">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" ht="91.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" t="s">
+      <c r="F5" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="G5" s="19">
         <v>0</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>31</v>
@@ -1843,26 +1854,26 @@
       <c r="M5" s="22"/>
       <c r="N5" s="14"/>
       <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
       <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
         <v>41</v>
       </c>
-      <c r="S5" t="s">
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" ht="60.75">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" ht="60.75">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>43</v>
@@ -1871,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>31</v>
@@ -1881,14 +1892,14 @@
         <v>24</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
       </c>
       <c r="Y6" s="15"/>
     </row>
@@ -1903,7 +1914,7 @@
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>47</v>
@@ -1922,16 +1933,16 @@
       </c>
       <c r="N7" s="14"/>
       <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
       </c>
       <c r="V7" s="15"/>
     </row>
     <row r="8" spans="1:25" ht="33" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>50</v>
@@ -1950,7 +1961,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" t="s">
@@ -1959,13 +1970,13 @@
       <c r="M8" s="24"/>
       <c r="N8" s="14"/>
       <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" s="15"/>
     </row>
@@ -2064,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="111" customHeight="1">
@@ -2079,7 +2090,7 @@
         <v>14251782</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>22</v>
@@ -2094,28 +2105,28 @@
         <v>23</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67">
         <v>1500000</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>29</v>
@@ -2124,28 +2135,28 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="45.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
@@ -2160,21 +2171,21 @@
       <c r="V4" s="15"/>
     </row>
     <row r="5" spans="1:22" ht="91.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="19">
         <v>0</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>31</v>
@@ -2183,12 +2194,12 @@
       <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22" ht="60.75">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>43</v>
@@ -2197,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>31</v>
@@ -2216,7 +2227,7 @@
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>47</v>
@@ -2225,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="33" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>50</v>
@@ -2257,16 +2268,16 @@
         <v>1044</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2307,160 +2318,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>70</v>
+      <c r="A2" s="68" t="s">
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="68"/>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="68"/>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>75</v>
+      <c r="A5" s="69" t="s">
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="69"/>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="69"/>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="69"/>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="33" t="s">
-        <v>86</v>
+      <c r="A10" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="70"/>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34" t="s">
-        <v>91</v>
+      <c r="A12" s="71" t="s">
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2475,6 +2486,78 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Madelena Monoja</DisplayName>
+        <AccountId>1904</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mia Seppo</DisplayName>
+        <AccountId>1905</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rose Baguma</DisplayName>
+        <AccountId>1906</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ojijo Odhiambo</DisplayName>
+        <AccountId>1907</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Charles Nyandiga</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Millie Macleod</DisplayName>
+        <AccountId>2043</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2723,86 +2806,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Madelena Monoja</DisplayName>
-        <AccountId>1904</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mia Seppo</DisplayName>
-        <AccountId>1905</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rose Baguma</DisplayName>
-        <AccountId>1906</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ojijo Odhiambo</DisplayName>
-        <AccountId>1907</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Charles Nyandiga</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Millie Macleod</DisplayName>
-        <AccountId>2043</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B2E5D-815A-4F30-86D1-957DDC8BDB5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2800BE6C-2A04-4545-A63A-7FF90D8DCB19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2800BE6C-2A04-4545-A63A-7FF90D8DCB19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B2E5D-815A-4F30-86D1-957DDC8BDB5A}"/>
 </file>
--- a/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAB1D31-9F7E-40F2-8FED-ABC6673B8173}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D185E05A-45A4-4104-9D9B-DFAD6AADD28E}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,142 +74,175 @@
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>132730</t>
+  </si>
+  <si>
+    <t>Climate Adaptation, Water and Energy Programme</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of people with improved access to clean energy as a result of set up/connected to solar micro/minigrids/Solar Home systems. Disaggregated by (i) community  (ii) sex (iii) age (iv) disability</t>
+  </si>
+  <si>
+    <t>FCDO</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>132179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAC  2 Energy Offer project </t>
+  </si>
+  <si>
+    <t>Number of households who gained access to clean, affordable, and sustainable energy</t>
+  </si>
+  <si>
+    <t>500 HH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are other outputs. The project invested in pre-feasibility studies of 10 solar mini grids, full feasibility of 5 solar mini-grids, development of a National Viability Gap funding for community energy projects, Coordination activties, Capacity building activities. About $900K went directly into energy infrastructure </t>
+  </si>
+  <si>
+    <t>TRAC 2</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Number of off grid renewable energy projects financed and implemented successfully</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate total MW for the project.</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
+  </si>
+  <si>
+    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Grant &amp; Investment</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Increase (in kilowatt peak) in installed renewable energy capacity per technology (solar) in selected areas</t>
+  </si>
+  <si>
+    <t>358 kWp of solar</t>
+  </si>
+  <si>
+    <t>133752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint SDG Fund Project </t>
+  </si>
+  <si>
+    <t>Total clean energy produced throughut the life of the project</t>
+  </si>
+  <si>
+    <t>Joint SDG Fund</t>
+  </si>
+  <si>
+    <t>Some Sources</t>
+  </si>
+  <si>
+    <t>missing-ZWE-1</t>
+  </si>
+  <si>
+    <t>Solar for Health (S4H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
+  </si>
+  <si>
+    <t>Estimate of 1000 per health facility is used</t>
+  </si>
+  <si>
+    <t>Global Fund (Next phase will be funded by GCF)</t>
+  </si>
+  <si>
+    <t>Solar4Health</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
     <t>00132730</t>
   </si>
   <si>
-    <t>Climate Adaptation, Water and Energy Programme</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Number of people with improved access to clean energy as a result of set up/connected to solar micro/minigrids/Solar Home systems. Disaggregated by (i) community  (ii) sex (iii) age (iv) disability</t>
-  </si>
-  <si>
-    <t>FCDO</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
     <t>00132179</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAC  2 Energy Offer project </t>
-  </si>
-  <si>
-    <t>Number of households who gained access to clean, affordable, and sustainable energy</t>
-  </si>
-  <si>
-    <t>500 HH</t>
-  </si>
-  <si>
-    <t>TRAC 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are other outputs. The project invested in pre-feasibility studies of 10 solar mini grids, full feasibility of 5 solar mini-grids, development of a National Viability Gap funding for community energy projects, Coordination activties, Capacity building activities. About $900K went directly into energy infrastructure </t>
-  </si>
-  <si>
-    <t>Number of off grid renewable energy projects financed and implemented successfully</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate total MW for the project.</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
-  </si>
-  <si>
-    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Increase (in kilowatt peak) in installed renewable energy capacity per technology (solar) in selected areas</t>
-  </si>
-  <si>
-    <t>358 kWp of solar</t>
+    <t>Solar = 358KWp</t>
   </si>
   <si>
     <t>00133752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joint SDG Fund Project </t>
-  </si>
-  <si>
-    <t>Total clean energy produced throughut the life of the project</t>
-  </si>
-  <si>
-    <t>Joint SDG Fund</t>
-  </si>
-  <si>
-    <t>missing-ZWE-1</t>
-  </si>
-  <si>
-    <t>Solar for Health (S4H)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
-  </si>
-  <si>
-    <t>Estimate of 1000 per health facility is used</t>
-  </si>
-  <si>
-    <t>Global Fund (Next phase will be funded by GCF)</t>
-  </si>
-  <si>
-    <t>Solar4Health</t>
-  </si>
-  <si>
-    <t>Solar = 358KWp</t>
   </si>
   <si>
     <t>TBD</t>
@@ -275,52 +308,64 @@
     <t>This information is not readily available and i have to consult with our Global Fund colleagues</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -329,7 +374,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -344,13 +392,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -359,16 +404,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -384,12 +432,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,49 +552,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -555,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -687,33 +718,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,169 +760,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83E401-96A4-436A-9DFF-F352876B132D}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1207,420 +1270,570 @@
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="12" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="50.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="31.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:25" ht="111" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="T1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="U1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="54">
+    </row>
+    <row r="2" spans="1:32" ht="111" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="52">
         <v>14251782</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="57">
+      <c r="E2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="55">
         <v>0</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <v>21499</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="62"/>
+      <c r="N2" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="62"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="14"/>
+      <c r="X2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="31" t="s">
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+    </row>
+    <row r="3" spans="1:32" ht="275.25">
+      <c r="A3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="52">
+        <v>1500000</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:25" ht="43.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="62"/>
+      <c r="U3" s="71"/>
+      <c r="X3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="AB3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+    </row>
+    <row r="4" spans="1:32" ht="106.5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="62"/>
+      <c r="N4" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="71"/>
+      <c r="X4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+    </row>
+    <row r="5" spans="1:32" ht="91.5">
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="62"/>
+      <c r="N5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="71"/>
+      <c r="X5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="106.5">
+      <c r="A6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="54">
-        <v>1500000</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="71"/>
+      <c r="X6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="58">
+      <c r="AA6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+    </row>
+    <row r="7" spans="1:32" ht="60.75">
+      <c r="A7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="53">
+        <v>45000000</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="56">
         <v>0</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="31" t="s">
+      <c r="H7" s="29">
+        <v>48</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="Y3" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45.75">
-      <c r="A4" s="41"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="59">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
-        <v>2</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="31" t="s">
+      <c r="M7" s="62"/>
+      <c r="N7" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="62"/>
+      <c r="U7" s="71"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" ht="91.5">
-      <c r="A5" s="41"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="59">
-        <v>0</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
+      <c r="AB7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" spans="1:32" ht="60.75">
+      <c r="A8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="35">
+        <v>21312267.609999999</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1044</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1044000</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="62"/>
+      <c r="N8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" ht="60.75">
-      <c r="A6" s="42"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="59">
-        <v>0</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="31" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="71"/>
+      <c r="X8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="Y6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="55">
-        <v>45000000</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="58">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31">
-        <v>48</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" ht="33" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="37">
-        <v>21312267.609999999</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="58">
-        <v>1044</v>
-      </c>
-      <c r="H8" s="32">
-        <v>1044000</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="W8" s="15"/>
+      <c r="AB8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{579F27B2-2522-44FB-8E2F-2EB2119F7320}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF8" xr:uid="{579F27B2-2522-44FB-8E2F-2EB2119F7320}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{73DA8748-F55F-4535-8634-2FCCAA19B34A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE8 Q2:Q8" xr:uid="{73DA8748-F55F-4535-8634-2FCCAA19B34A}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{E2B3129C-75E2-4186-A95B-05E321F4457F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD8 P2:P8" xr:uid="{E2B3129C-75E2-4186-A95B-05E321F4457F}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{FA2A53E6-2C2A-434C-9A37-BE8569F349F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB8" xr:uid="{FA2A53E6-2C2A-434C-9A37-BE8569F349F3}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{2B9351FE-907B-4CC1-A15C-A21628425FAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA8 N2:N8" xr:uid="{2B9351FE-907B-4CC1-A15C-A21628425FAD}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC8" xr:uid="{AD13929C-E2F2-4628-9461-E5C4A5055429}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{A030114E-D115-4C9A-A20E-ED83244FFF6E}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{D8B1E6B6-F6B4-4D60-8F5C-E84860624765}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{8EA3257E-2073-4D37-BCC5-CF38E409F658}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{37B8E6E7-FA94-43FC-8178-FFCD4D0537C3}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{21E1584B-7962-4B79-A3FF-8E42C6AF29B9}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{FA6E58AA-8883-4B6A-A3AF-635EF5BCD388}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{981E5DD7-5E7C-4405-BF91-205BF9A11490}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96A3D37A-88E0-470B-8062-E74F3B4323B4}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1663,13 +1876,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1681,304 +1894,304 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="111" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>14251782</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>21499</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" ht="43.5" customHeight="1">
+      <c r="A3" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75">
+        <v>1500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:25" ht="43.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67">
-        <v>1500000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="45.75">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="17">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" t="s">
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45.75">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" t="s">
+      <c r="M4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="91.5">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="12"/>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="60.75">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
-        <v>2</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" t="s">
+      <c r="H6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" ht="91.5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23" t="s">
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="14"/>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" ht="60.75">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="15"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10">
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="10">
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="N7" s="12"/>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="33" customHeight="1">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11">
+        <v>21312267.609999999</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="13">
-        <v>21312267.609999999</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8">
         <v>1044</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6"/>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="12"/>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="W8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2010,7 +2223,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7EA98EA-8FF1-405B-B09C-D999246BC629}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -2053,13 +2266,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2071,213 +2284,213 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>58</v>
+      <c r="K1" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="111" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>14251782</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>21499</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67">
+      <c r="A3" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75">
         <v>1500000</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
+      <c r="H3" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="45.75">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="19">
+        <v>47</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="V4" s="15"/>
+      <c r="J4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" ht="91.5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="19">
+        <v>47</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="17">
         <v>0</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="V5" s="15"/>
+      <c r="H5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" ht="60.75">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="19">
+        <v>47</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="17">
         <v>0</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="V6" s="15"/>
+      <c r="H6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" ht="33.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10">
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="10">
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="33" customHeight="1">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11">
+        <v>21312267.609999999</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="13">
-        <v>21312267.609999999</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8">
         <v>1044</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>69</v>
+      <c r="H8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2506,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -2305,259 +2518,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="68"/>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="68"/>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="69"/>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B1" s="63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="69"/>
-      <c r="B7" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="76" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="69"/>
-      <c r="B8" t="s">
+      <c r="B4" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="76" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="69"/>
-      <c r="B9" t="s">
+      <c r="B5" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B7" s="64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="70"/>
-      <c r="B11" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B8" s="64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="71" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="71"/>
-      <c r="B13" t="s">
+      <c r="B10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="71"/>
-      <c r="B14" t="s">
+      <c r="B11" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="76" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="B12" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="76" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="B13" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="76" t="s">
         <v>103</v>
       </c>
+      <c r="B14" s="77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Madelena Monoja</DisplayName>
-        <AccountId>1904</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mia Seppo</DisplayName>
-        <AccountId>1905</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rose Baguma</DisplayName>
-        <AccountId>1906</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ojijo Odhiambo</DisplayName>
-        <AccountId>1907</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Charles Nyandiga</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Millie Macleod</DisplayName>
-        <AccountId>2043</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2806,8 +2959,80 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Madelena Monoja</DisplayName>
+        <AccountId>1904</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mia Seppo</DisplayName>
+        <AccountId>1905</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rose Baguma</DisplayName>
+        <AccountId>1906</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ojijo Odhiambo</DisplayName>
+        <AccountId>1907</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Charles Nyandiga</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Millie Macleod</DisplayName>
+        <AccountId>2043</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B2E5D-815A-4F30-86D1-957DDC8BDB5A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2815,5 +3040,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B2E5D-815A-4F30-86D1-957DDC8BDB5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
 </file>
--- a/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Zimbabwe - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D185E05A-45A4-4104-9D9B-DFAD6AADD28E}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="11_D8709A15E95C0EF5348067B1B85C1AE5D84E484A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE018A4A-089C-471D-958D-9E0F5FBA3A90}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="118">
   <si>
     <t>Project ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>132179</t>
   </si>
   <si>
@@ -155,88 +152,85 @@
     <t>Number of off grid renewable energy projects financed and implemented successfully</t>
   </si>
   <si>
+    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
+  </si>
+  <si>
+    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Grant &amp; Investment</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Increase (in kilowatt peak) in installed renewable energy capacity per technology (solar) in selected areas</t>
+  </si>
+  <si>
+    <t>358 kWp of solar</t>
+  </si>
+  <si>
+    <t>133752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint SDG Fund Project </t>
+  </si>
+  <si>
+    <t>Total clean energy produced throughut the life of the project</t>
+  </si>
+  <si>
+    <t>Joint SDG Fund</t>
+  </si>
+  <si>
+    <t>Some Sources</t>
+  </si>
+  <si>
+    <t>missing-ZWE-1</t>
+  </si>
+  <si>
+    <t>Solar for Health (S4H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
+  </si>
+  <si>
+    <t>Estimate of 1000 per health facility is used</t>
+  </si>
+  <si>
+    <t>Global Fund (Next phase will be funded by GCF)</t>
+  </si>
+  <si>
+    <t>Solar4Health</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>00132730</t>
+  </si>
+  <si>
+    <t>00132179</t>
+  </si>
+  <si>
     <t>to the CO: Please estimate total MW for the project.</t>
   </si>
   <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Extend to which Ministry of Energy is able to coordinate renewable energy activities, convene stakeholders and track specific technology penetration across the country.</t>
-  </si>
-  <si>
-    <t>2 Investment forums, 1 Analytic roadmap for energy transition</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Grant &amp; Investment</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Tier 2</t>
-  </si>
-  <si>
     <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Increase (in kilowatt peak) in installed renewable energy capacity per technology (solar) in selected areas</t>
-  </si>
-  <si>
-    <t>358 kWp of solar</t>
-  </si>
-  <si>
-    <t>133752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joint SDG Fund Project </t>
-  </si>
-  <si>
-    <t>Total clean energy produced throughut the life of the project</t>
-  </si>
-  <si>
-    <t>Joint SDG Fund</t>
-  </si>
-  <si>
-    <t>Some Sources</t>
-  </si>
-  <si>
-    <t>missing-ZWE-1</t>
-  </si>
-  <si>
-    <t>Solar for Health (S4H)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Health Care Facilities with access to solar energy </t>
-  </si>
-  <si>
-    <t>Estimate of 1000 per health facility is used</t>
-  </si>
-  <si>
-    <t>Global Fund (Next phase will be funded by GCF)</t>
-  </si>
-  <si>
-    <t>Solar4Health</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>00132730</t>
-  </si>
-  <si>
-    <t>00132179</t>
   </si>
   <si>
     <t>Solar = 358KWp</t>
@@ -432,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,18 +533,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -739,7 +721,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -789,15 +771,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -894,19 +867,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83E401-96A4-436A-9DFF-F352876B132D}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1282,529 +1249,390 @@
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="111" customHeight="1">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:23" ht="111" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="52">
+      <c r="C2" s="43"/>
+      <c r="D2" s="49">
         <v>14251782</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="52">
         <v>0</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="27">
         <v>21499</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="69" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="70" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="71" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="71"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="66"/>
       <c r="V2" s="14"/>
-      <c r="X2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:23" ht="275.25">
+      <c r="A3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="49">
+        <v>1500000</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="29" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="57"/>
+      <c r="U3" s="66"/>
+    </row>
+    <row r="4" spans="1:23" ht="45.75">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="66"/>
+    </row>
+    <row r="5" spans="1:23" ht="91.5">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="66"/>
+      <c r="T5" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="66"/>
+    </row>
+    <row r="6" spans="1:23" ht="60.75">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="57"/>
+      <c r="N6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" ht="45.75">
+      <c r="A7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="50">
+        <v>45000000</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>48</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-    </row>
-    <row r="3" spans="1:32" ht="275.25">
-      <c r="A3" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="52">
-        <v>1500000</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="56">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="66"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" ht="45.75">
+      <c r="A8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="32">
+        <v>21312267.609999999</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1044</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1044000</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="71"/>
-      <c r="X3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-    </row>
-    <row r="4" spans="1:32" ht="106.5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="57">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32">
-        <v>2</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="71"/>
-      <c r="X4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-    </row>
-    <row r="5" spans="1:32" ht="91.5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="57">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="71"/>
-      <c r="T5" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="71"/>
-      <c r="X5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="106.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="57">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="62"/>
-      <c r="U6" s="71"/>
-      <c r="X6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-    </row>
-    <row r="7" spans="1:32" ht="60.75">
-      <c r="A7" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="53">
-        <v>45000000</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="56">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>48</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="62"/>
-      <c r="U7" s="71"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-    </row>
-    <row r="8" spans="1:32" ht="60.75">
-      <c r="A8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="35">
-        <v>21312267.609999999</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="56">
-        <v>1044</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1044000</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="71"/>
-      <c r="X8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="66"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF8" xr:uid="{579F27B2-2522-44FB-8E2F-2EB2119F7320}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE8 Q2:Q8" xr:uid="{73DA8748-F55F-4535-8634-2FCCAA19B34A}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{73DA8748-F55F-4535-8634-2FCCAA19B34A}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD8 P2:P8" xr:uid="{E2B3129C-75E2-4186-A95B-05E321F4457F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{E2B3129C-75E2-4186-A95B-05E321F4457F}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB8" xr:uid="{FA2A53E6-2C2A-434C-9A37-BE8569F349F3}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA8 N2:N8" xr:uid="{2B9351FE-907B-4CC1-A15C-A21628425FAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{2B9351FE-907B-4CC1-A15C-A21628425FAD}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC8" xr:uid="{AD13929C-E2F2-4628-9461-E5C4A5055429}">
-      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{A030114E-D115-4C9A-A20E-ED83244FFF6E}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
@@ -1901,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
@@ -1926,7 +1754,7 @@
     </row>
     <row r="2" spans="1:25" ht="111" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -1964,30 +1792,30 @@
       <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:25" ht="43.5" customHeight="1">
-      <c r="A3" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75">
+      <c r="A3" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70">
         <v>1500000</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -2000,19 +1828,19 @@
         <v>23</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="17">
         <v>0</v>
@@ -2021,18 +1849,18 @@
         <v>2</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
@@ -2040,25 +1868,25 @@
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="91.5">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="17">
         <v>0</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" t="s">
@@ -2067,49 +1895,49 @@
       <c r="M5" s="20"/>
       <c r="N5" s="12"/>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="60.75">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="17">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
@@ -2118,19 +1946,19 @@
     </row>
     <row r="7" spans="1:25" ht="33.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10">
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -2139,14 +1967,14 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -2155,26 +1983,26 @@
     </row>
     <row r="8" spans="1:25" ht="33" customHeight="1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11">
         <v>21312267.609999999</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="8">
         <v>1044</v>
       </c>
       <c r="H8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" t="s">
@@ -2183,13 +2011,13 @@
       <c r="M8" s="22"/>
       <c r="N8" s="12"/>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="W8" s="13"/>
     </row>
@@ -2288,12 +2116,12 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="111" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -2303,7 +2131,7 @@
         <v>14251782</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>24</v>
@@ -2318,58 +2146,58 @@
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A3" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70">
+        <v>1500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75">
-        <v>1500000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="45.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="17">
         <v>0</v>
@@ -2378,119 +2206,119 @@
         <v>2</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="12"/>
       <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" ht="91.5">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="17">
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="12"/>
       <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" ht="60.75">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="17">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12"/>
       <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" ht="33.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10">
         <v>45000000</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="33" customHeight="1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11">
         <v>21312267.609999999</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="8">
         <v>1044</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2530,179 +2358,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="76" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B5" s="59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="76" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B6" s="59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="76" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B7" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="76" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B8" s="59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="76" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B9" s="59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="76" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B10" s="72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="76" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="76" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B12" s="59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="76" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B13" s="72" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="76" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="76" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B15" s="72" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="76" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B16" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="76" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B17" s="59" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="76" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B18" s="72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="76" t="s">
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B19" s="72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="76" t="s">
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B20" s="72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="76" t="s">
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="77" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="71" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="78" t="s">
+      <c r="B22" s="72" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2711,8 +2539,80 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Madelena Monoja</DisplayName>
+        <AccountId>1904</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mia Seppo</DisplayName>
+        <AccountId>1905</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rose Baguma</DisplayName>
+        <AccountId>1906</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ojijo Odhiambo</DisplayName>
+        <AccountId>1907</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Charles Nyandiga</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Millie Macleod</DisplayName>
+        <AccountId>2043</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2737,6 +2637,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2816,6 +2717,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2959,80 +2865,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Madelena Monoja</DisplayName>
-        <AccountId>1904</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mia Seppo</DisplayName>
-        <AccountId>1905</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rose Baguma</DisplayName>
-        <AccountId>1906</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ojijo Odhiambo</DisplayName>
-        <AccountId>1907</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Charles Nyandiga</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Millie Macleod</DisplayName>
-        <AccountId>2043</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B2E5D-815A-4F30-86D1-957DDC8BDB5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3040,5 +2874,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0CA4F8-9462-499E-8650-C8B1A2E45718}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A26818C-77D8-47D8-8732-4C13C9146E18}"/>
 </file>